--- a/SourceCode/FIN.xlsx
+++ b/SourceCode/FIN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwong23/Library/Mobile Documents/com~apple~CloudDocs/Librero/dss/fin-modeling/SourceCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwo/Library/Mobile Documents/com~apple~CloudDocs/Librero/dss/fin-modeling/SourceCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3096F649-3CCD-9F4D-A10A-3668C166C751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56268404-BD54-154E-9927-86F353D00D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16800" windowHeight="20540" xr2:uid="{B2C94D60-86EF-EB41-9953-AD9E74885412}"/>
+    <workbookView xWindow="-7880" yWindow="-26860" windowWidth="12100" windowHeight="20500" xr2:uid="{B2C94D60-86EF-EB41-9953-AD9E74885412}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,6 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,10 +41,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="General;;"/>
-    <numFmt numFmtId="172" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(* &quot;&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="General;;"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(* &quot;&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -154,59 +153,59 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
-    <cellStyle name="Moneda [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="2" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -224,7 +223,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-MX"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -281,7 +280,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Profit and Loss</c:v>
+                  <c:v> Profit and Loss </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -301,126 +300,126 @@
                 <c:ptCount val="37"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>YR 0</c:v>
+                    <c:v> YR 0 </c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>YR 1</c:v>
+                    <c:v> YR 1 </c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>YR 2</c:v>
+                    <c:v> YR 2 </c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>YR 3</c:v>
+                    <c:v> YR 3 </c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -430,7 +429,7 @@
             <c:numRef>
               <c:f>[1]FIN_CHARTDAT!$C$55:$AM$55</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -445,10 +444,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-13489916.666666666</c:v>
+                  <c:v>-13624916.666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8055250</c:v>
+                  <c:v>-7614250</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-7629883.3333333321</c:v>
@@ -562,7 +561,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cumulative Profit &amp; Loss</c:v>
+                  <c:v> Cumulative Profit &amp; Loss </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -582,126 +581,126 @@
                 <c:ptCount val="37"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>YR 0</c:v>
+                    <c:v> YR 0 </c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>YR 1</c:v>
+                    <c:v> YR 1 </c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>YR 2</c:v>
+                    <c:v> YR 2 </c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>YR 3</c:v>
+                    <c:v> YR 3 </c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -711,7 +710,7 @@
             <c:numRef>
               <c:f>[1]FIN_CHARTDAT!$C$56:$AM$56</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -726,103 +725,103 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-13489916.666666666</c:v>
+                  <c:v>-13624916.666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-21545166.666666664</c:v>
+                  <c:v>-21239166.666666664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-29175049.999999996</c:v>
+                  <c:v>-28869049.999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-36908333.333333328</c:v>
+                  <c:v>-36602333.333333328</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-44248016.666666657</c:v>
+                  <c:v>-43942016.666666657</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-51191099.999999985</c:v>
+                  <c:v>-50885099.999999985</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-57740583.333333313</c:v>
+                  <c:v>-57434583.333333313</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-63893466.666666642</c:v>
+                  <c:v>-63587466.666666642</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-70671949.99999997</c:v>
+                  <c:v>-70365949.99999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-77313581.666666642</c:v>
+                  <c:v>-77007581.666666642</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-80225478.333333313</c:v>
+                  <c:v>-79919478.333333313</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-81897609.999999985</c:v>
+                  <c:v>-81591609.999999985</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-82569741.666666657</c:v>
+                  <c:v>-82263741.666666657</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-83241873.333333328</c:v>
+                  <c:v>-82935873.333333328</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-83914005</c:v>
+                  <c:v>-83608005</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-84586136.666666672</c:v>
+                  <c:v>-84280136.666666672</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-85258268.333333343</c:v>
+                  <c:v>-84952268.333333343</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-85930400.000000015</c:v>
+                  <c:v>-85624400.000000015</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-86602531.666666687</c:v>
+                  <c:v>-86296531.666666687</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-87274663.333333358</c:v>
+                  <c:v>-86968663.333333358</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-91671715.00000003</c:v>
+                  <c:v>-91365715.00000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-92315667.766666695</c:v>
+                  <c:v>-92009667.766666695</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-84502166.483333349</c:v>
+                  <c:v>-84196166.483333349</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-73871803.650000006</c:v>
+                  <c:v>-73565803.650000006</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-63241440.816666663</c:v>
+                  <c:v>-62935440.816666663</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-52611077.983333319</c:v>
+                  <c:v>-52305077.983333319</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-41980715.149999976</c:v>
+                  <c:v>-41674715.149999976</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-31350352.316666637</c:v>
+                  <c:v>-31044352.316666637</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-20719989.483333297</c:v>
+                  <c:v>-20413989.483333297</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-10089626.649999958</c:v>
+                  <c:v>-9783626.6499999575</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>540736.18333338201</c:v>
+                  <c:v>846736.18333338201</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11171099.016666722</c:v>
+                  <c:v>11477099.016666722</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>13344007.800000053</c:v>
+                  <c:v>13650007.800000053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -843,7 +842,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Increase/Decrease Cash</c:v>
+                  <c:v> Increase/Decrease Cash </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -863,126 +862,126 @@
                 <c:ptCount val="37"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>YR 0</c:v>
+                    <c:v> YR 0 </c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>YR 1</c:v>
+                    <c:v> YR 1 </c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>YR 2</c:v>
+                    <c:v> YR 2 </c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>YR 3</c:v>
+                    <c:v> YR 3 </c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -992,7 +991,7 @@
             <c:numRef>
               <c:f>[1]FIN_CHARTDAT!$C$57:$AM$57</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1007,10 +1006,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-21951500</c:v>
+                  <c:v>-22086500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8787000</c:v>
+                  <c:v>-8346000</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-7550299.9999999991</c:v>
@@ -1124,7 +1123,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cumulative Cash Flow</c:v>
+                  <c:v> Cumulative Cash Flow </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1144,126 +1143,126 @@
                 <c:ptCount val="37"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>YR 0</c:v>
+                    <c:v> YR 0 </c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>YR 1</c:v>
+                    <c:v> YR 1 </c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>YR 2</c:v>
+                    <c:v> YR 2 </c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>YR 3</c:v>
+                    <c:v> YR 3 </c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1273,7 +1272,7 @@
             <c:numRef>
               <c:f>[1]FIN_CHARTDAT!$C$58:$AM$58</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1288,103 +1287,103 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-21951500</c:v>
+                  <c:v>-22086500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-30738500</c:v>
+                  <c:v>-30432500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-38288800</c:v>
+                  <c:v>-37982800</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-45862500</c:v>
+                  <c:v>-45556500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-53042600</c:v>
+                  <c:v>-52736600</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-59826100</c:v>
+                  <c:v>-59520100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-66216000</c:v>
+                  <c:v>-65910000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-72209300</c:v>
+                  <c:v>-71903300</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-78828200</c:v>
+                  <c:v>-78522200</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-85388915</c:v>
+                  <c:v>-85082915</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-88139895</c:v>
+                  <c:v>-87833895</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-89651110</c:v>
+                  <c:v>-89345110</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-90162325</c:v>
+                  <c:v>-89856325</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-90673540</c:v>
+                  <c:v>-90367540</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-91184755</c:v>
+                  <c:v>-90878755</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-91695970</c:v>
+                  <c:v>-91389970</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-92207185</c:v>
+                  <c:v>-91901185</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-92718400</c:v>
+                  <c:v>-92412400</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-93229615</c:v>
+                  <c:v>-92923615</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-93740830</c:v>
+                  <c:v>-93434830</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-97976965</c:v>
+                  <c:v>-97670965</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-98460001.099999994</c:v>
+                  <c:v>-98154001.099999994</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-90485583.149999991</c:v>
+                  <c:v>-90179583.149999991</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-79694303.649999991</c:v>
+                  <c:v>-79388303.649999991</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-68903024.149999991</c:v>
+                  <c:v>-68597024.149999991</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-58111744.649999984</c:v>
+                  <c:v>-57805744.649999984</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-47320465.149999976</c:v>
+                  <c:v>-47014465.149999976</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-36529185.649999969</c:v>
+                  <c:v>-36223185.649999969</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-25737906.149999961</c:v>
+                  <c:v>-25431906.149999961</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-14946626.649999956</c:v>
+                  <c:v>-14640626.649999956</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-4155347.1499999501</c:v>
+                  <c:v>-3849347.1499999501</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6635932.3500000555</c:v>
+                  <c:v>6941932.3500000555</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8969757.8000000529</c:v>
+                  <c:v>9275757.8000000529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1405,7 +1404,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cumulative Cash with Investment</c:v>
+                  <c:v> Cumulative Cash with Investment </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1420,126 +1419,126 @@
                 <c:ptCount val="37"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>YR 0</c:v>
+                    <c:v> YR 0 </c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>YR 1</c:v>
+                    <c:v> YR 1 </c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>YR 2</c:v>
+                    <c:v> YR 2 </c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>YR 3</c:v>
+                    <c:v> YR 3 </c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1549,22 +1548,22 @@
             <c:numRef>
               <c:f>[1]FIN_CHARTDAT!$C$59:$AM$59</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>45862500</c:v>
+                  <c:v>45556500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45862500</c:v>
+                  <c:v>45556500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45862500</c:v>
+                  <c:v>45556500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45862500</c:v>
+                  <c:v>45556500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23911000</c:v>
+                  <c:v>23470000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>15124000</c:v>
@@ -1681,7 +1680,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Profit and Loss</c:v>
+                  <c:v> Profit and Loss </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1701,165 +1700,165 @@
                 <c:ptCount val="49"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="38">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="39">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="40">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="41">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="42">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="43">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="44">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="45">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="46">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="47">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="48">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>YR 0</c:v>
+                    <c:v> YR 0 </c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>YR 1</c:v>
+                    <c:v> YR 1 </c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>YR 2</c:v>
+                    <c:v> YR 2 </c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>YR 3</c:v>
+                    <c:v> YR 3 </c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v>YR 4</c:v>
+                    <c:v> YR 4 </c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1869,7 +1868,7 @@
             <c:numRef>
               <c:f>[1]FIN_CHARTDAT!$C$55:$AY$55</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1884,10 +1883,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-13489916.666666666</c:v>
+                  <c:v>-13624916.666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8055250</c:v>
+                  <c:v>-7614250</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-7629883.3333333321</c:v>
@@ -2037,7 +2036,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cumulative Profit &amp; Loss</c:v>
+                  <c:v> Cumulative Profit &amp; Loss </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2057,165 +2056,165 @@
                 <c:ptCount val="49"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="38">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="39">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="40">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="41">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="42">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="43">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="44">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="45">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="46">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="47">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="48">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>YR 0</c:v>
+                    <c:v> YR 0 </c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>YR 1</c:v>
+                    <c:v> YR 1 </c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>YR 2</c:v>
+                    <c:v> YR 2 </c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>YR 3</c:v>
+                    <c:v> YR 3 </c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v>YR 4</c:v>
+                    <c:v> YR 4 </c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2225,7 +2224,7 @@
             <c:numRef>
               <c:f>[1]FIN_CHARTDAT!$C$56:$AY$56</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2240,139 +2239,139 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-13489916.666666666</c:v>
+                  <c:v>-13624916.666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-21545166.666666664</c:v>
+                  <c:v>-21239166.666666664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-29175049.999999996</c:v>
+                  <c:v>-28869049.999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-36908333.333333328</c:v>
+                  <c:v>-36602333.333333328</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-44248016.666666657</c:v>
+                  <c:v>-43942016.666666657</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-51191099.999999985</c:v>
+                  <c:v>-50885099.999999985</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-57740583.333333313</c:v>
+                  <c:v>-57434583.333333313</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-63893466.666666642</c:v>
+                  <c:v>-63587466.666666642</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-70671949.99999997</c:v>
+                  <c:v>-70365949.99999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-77313581.666666642</c:v>
+                  <c:v>-77007581.666666642</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-80225478.333333313</c:v>
+                  <c:v>-79919478.333333313</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-81897609.999999985</c:v>
+                  <c:v>-81591609.999999985</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-82569741.666666657</c:v>
+                  <c:v>-82263741.666666657</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-83241873.333333328</c:v>
+                  <c:v>-82935873.333333328</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-83914005</c:v>
+                  <c:v>-83608005</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-84586136.666666672</c:v>
+                  <c:v>-84280136.666666672</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-85258268.333333343</c:v>
+                  <c:v>-84952268.333333343</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-85930400.000000015</c:v>
+                  <c:v>-85624400.000000015</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-86602531.666666687</c:v>
+                  <c:v>-86296531.666666687</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-87274663.333333358</c:v>
+                  <c:v>-86968663.333333358</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-91671715.00000003</c:v>
+                  <c:v>-91365715.00000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-92315667.766666695</c:v>
+                  <c:v>-92009667.766666695</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-84502166.483333349</c:v>
+                  <c:v>-84196166.483333349</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-73871803.650000006</c:v>
+                  <c:v>-73565803.650000006</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-63241440.816666663</c:v>
+                  <c:v>-62935440.816666663</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-52611077.983333319</c:v>
+                  <c:v>-52305077.983333319</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-41980715.149999976</c:v>
+                  <c:v>-41674715.149999976</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-31350352.316666637</c:v>
+                  <c:v>-31044352.316666637</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-20719989.483333297</c:v>
+                  <c:v>-20413989.483333297</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-10089626.649999958</c:v>
+                  <c:v>-9783626.6499999575</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>540736.18333338201</c:v>
+                  <c:v>846736.18333338201</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11171099.016666722</c:v>
+                  <c:v>11477099.016666722</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>13344007.800000053</c:v>
+                  <c:v>13650007.800000053</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>23995625.412833389</c:v>
+                  <c:v>24301625.412833389</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>50307416.983666733</c:v>
+                  <c:v>50613416.983666733</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>81838441.497500077</c:v>
+                  <c:v>82144441.497500077</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>113369466.01133342</c:v>
+                  <c:v>113675466.01133342</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>144900490.52516678</c:v>
+                  <c:v>145206490.52516678</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>176431515.03900012</c:v>
+                  <c:v>176737515.03900012</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>207962539.55283347</c:v>
+                  <c:v>208268539.55283347</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>239493564.06666681</c:v>
+                  <c:v>239799564.06666681</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>271024588.58050019</c:v>
+                  <c:v>271330588.58050019</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>302555613.09433353</c:v>
+                  <c:v>302861613.09433353</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>334086637.60816687</c:v>
+                  <c:v>334392637.60816687</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>349957488.16400021</c:v>
+                  <c:v>350263488.16400021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2393,7 +2392,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Increase/Decrease Cash</c:v>
+                  <c:v> Increase/Decrease Cash </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2413,165 +2412,165 @@
                 <c:ptCount val="49"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="38">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="39">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="40">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="41">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="42">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="43">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="44">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="45">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="46">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="47">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="48">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>YR 0</c:v>
+                    <c:v> YR 0 </c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>YR 1</c:v>
+                    <c:v> YR 1 </c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>YR 2</c:v>
+                    <c:v> YR 2 </c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>YR 3</c:v>
+                    <c:v> YR 3 </c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v>YR 4</c:v>
+                    <c:v> YR 4 </c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2581,7 +2580,7 @@
             <c:numRef>
               <c:f>[1]FIN_CHARTDAT!$C$57:$AY$57</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2596,10 +2595,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-21951500</c:v>
+                  <c:v>-22086500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8787000</c:v>
+                  <c:v>-8346000</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>-7550299.9999999991</c:v>
@@ -2749,7 +2748,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cumulative Cash Flow</c:v>
+                  <c:v> Cumulative Cash Flow </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2769,165 +2768,165 @@
                 <c:ptCount val="49"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="38">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="39">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="40">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="41">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="42">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="43">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="44">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="45">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="46">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="47">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="48">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>YR 0</c:v>
+                    <c:v> YR 0 </c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>YR 1</c:v>
+                    <c:v> YR 1 </c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>YR 2</c:v>
+                    <c:v> YR 2 </c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>YR 3</c:v>
+                    <c:v> YR 3 </c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v>YR 4</c:v>
+                    <c:v> YR 4 </c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2937,7 +2936,7 @@
             <c:numRef>
               <c:f>[1]FIN_CHARTDAT!$C$58:$AY$58</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2952,139 +2951,139 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-21951500</c:v>
+                  <c:v>-22086500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-30738500</c:v>
+                  <c:v>-30432500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-38288800</c:v>
+                  <c:v>-37982800</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-45862500</c:v>
+                  <c:v>-45556500</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-53042600</c:v>
+                  <c:v>-52736600</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-59826100</c:v>
+                  <c:v>-59520100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-66216000</c:v>
+                  <c:v>-65910000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-72209300</c:v>
+                  <c:v>-71903300</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-78828200</c:v>
+                  <c:v>-78522200</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-85388915</c:v>
+                  <c:v>-85082915</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-88139895</c:v>
+                  <c:v>-87833895</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-89651110</c:v>
+                  <c:v>-89345110</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-90162325</c:v>
+                  <c:v>-89856325</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-90673540</c:v>
+                  <c:v>-90367540</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-91184755</c:v>
+                  <c:v>-90878755</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-91695970</c:v>
+                  <c:v>-91389970</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-92207185</c:v>
+                  <c:v>-91901185</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-92718400</c:v>
+                  <c:v>-92412400</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-93229615</c:v>
+                  <c:v>-92923615</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-93740830</c:v>
+                  <c:v>-93434830</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-97976965</c:v>
+                  <c:v>-97670965</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-98460001.099999994</c:v>
+                  <c:v>-98154001.099999994</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-90485583.149999991</c:v>
+                  <c:v>-90179583.149999991</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-79694303.649999991</c:v>
+                  <c:v>-79388303.649999991</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-68903024.149999991</c:v>
+                  <c:v>-68597024.149999991</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-58111744.649999984</c:v>
+                  <c:v>-57805744.649999984</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-47320465.149999976</c:v>
+                  <c:v>-47014465.149999976</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-36529185.649999969</c:v>
+                  <c:v>-36223185.649999969</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-25737906.149999961</c:v>
+                  <c:v>-25431906.149999961</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-14946626.649999956</c:v>
+                  <c:v>-14640626.649999956</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-4155347.1499999501</c:v>
+                  <c:v>-3849347.1499999501</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6635932.3500000555</c:v>
+                  <c:v>6941932.3500000555</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8969757.8000000529</c:v>
+                  <c:v>9275757.8000000529</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>19782292.079500057</c:v>
+                  <c:v>20088292.079500057</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>46255000.317000069</c:v>
+                  <c:v>46561000.317000069</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>77946941.497500092</c:v>
+                  <c:v>78252941.497500092</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>109638882.67800011</c:v>
+                  <c:v>109944882.67800011</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>141330823.85850012</c:v>
+                  <c:v>141636823.85850012</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>173022765.03900015</c:v>
+                  <c:v>173328765.03900015</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>204714706.21950018</c:v>
+                  <c:v>205020706.21950018</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>236406647.40000021</c:v>
+                  <c:v>236712647.40000021</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>268098588.58050025</c:v>
+                  <c:v>268404588.58050025</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>299790529.76100028</c:v>
+                  <c:v>300096529.76100028</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>331482470.94150031</c:v>
+                  <c:v>331788470.94150031</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>347514238.16400033</c:v>
+                  <c:v>347820238.16400033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3105,7 +3104,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Cumulative Cash with Investment</c:v>
+                  <c:v> Cumulative Cash with Investment </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3120,165 +3119,165 @@
                 <c:ptCount val="49"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v>Jan</c:v>
+                    <c:v> Jan </c:v>
                   </c:pt>
                   <c:pt idx="38">
-                    <c:v>Feb</c:v>
+                    <c:v> Feb </c:v>
                   </c:pt>
                   <c:pt idx="39">
-                    <c:v>Mar</c:v>
+                    <c:v> Mar </c:v>
                   </c:pt>
                   <c:pt idx="40">
-                    <c:v>Apr</c:v>
+                    <c:v> Apr </c:v>
                   </c:pt>
                   <c:pt idx="41">
-                    <c:v>May</c:v>
+                    <c:v> May </c:v>
                   </c:pt>
                   <c:pt idx="42">
-                    <c:v>Jun</c:v>
+                    <c:v> Jun </c:v>
                   </c:pt>
                   <c:pt idx="43">
-                    <c:v>Jul</c:v>
+                    <c:v> Jul </c:v>
                   </c:pt>
                   <c:pt idx="44">
-                    <c:v>Aug</c:v>
+                    <c:v> Aug </c:v>
                   </c:pt>
                   <c:pt idx="45">
-                    <c:v>Sep</c:v>
+                    <c:v> Sep </c:v>
                   </c:pt>
                   <c:pt idx="46">
-                    <c:v>Oct</c:v>
+                    <c:v> Oct </c:v>
                   </c:pt>
                   <c:pt idx="47">
-                    <c:v>Nov</c:v>
+                    <c:v> Nov </c:v>
                   </c:pt>
                   <c:pt idx="48">
-                    <c:v>Dec</c:v>
+                    <c:v> Dec </c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>YR 0</c:v>
+                    <c:v> YR 0 </c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>YR 1</c:v>
+                    <c:v> YR 1 </c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>YR 2</c:v>
+                    <c:v> YR 2 </c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>YR 3</c:v>
+                    <c:v> YR 3 </c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v>YR 4</c:v>
+                    <c:v> YR 4 </c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3288,22 +3287,22 @@
             <c:numRef>
               <c:f>[1]FIN_CHARTDAT!$C$59:$AY$59</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>45862500</c:v>
+                  <c:v>45556500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45862500</c:v>
+                  <c:v>45556500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45862500</c:v>
+                  <c:v>45556500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45862500</c:v>
+                  <c:v>45556500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23911000</c:v>
+                  <c:v>23470000</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>15124000</c:v>
@@ -3485,7 +3484,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3615,12 +3614,12 @@
       <sheetName val="STAFF_CHART TOT HC"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6">
         <row r="108">
           <cell r="H108" t="str">
@@ -3635,10 +3634,10 @@
             <v>Unit Sales</v>
           </cell>
           <cell r="H111">
-            <v>78</v>
+            <v>48</v>
           </cell>
           <cell r="I111">
-            <v>107</v>
+            <v>205</v>
           </cell>
         </row>
         <row r="113">
@@ -3651,10 +3650,10 @@
             <v>Product Revenue</v>
           </cell>
           <cell r="H114">
-            <v>1092000</v>
+            <v>672000</v>
           </cell>
           <cell r="I114">
-            <v>1498000</v>
+            <v>2870000</v>
           </cell>
         </row>
         <row r="115">
@@ -3662,10 +3661,10 @@
             <v>Cost of Goods Sold</v>
           </cell>
           <cell r="H115">
-            <v>741000</v>
+            <v>456000</v>
           </cell>
           <cell r="I115">
-            <v>1016500</v>
+            <v>1947500</v>
           </cell>
         </row>
         <row r="116">
@@ -3673,10 +3672,10 @@
             <v>Gross Margin $</v>
           </cell>
           <cell r="H116">
-            <v>351000</v>
+            <v>216000</v>
           </cell>
           <cell r="I116">
-            <v>481500</v>
+            <v>922500</v>
           </cell>
         </row>
         <row r="117">
@@ -3771,10 +3770,10 @@
             <v>Net Revenue</v>
           </cell>
           <cell r="H129">
-            <v>351000</v>
+            <v>216000</v>
           </cell>
           <cell r="I129">
-            <v>481500</v>
+            <v>922500</v>
           </cell>
         </row>
         <row r="131">
@@ -4393,10 +4392,10 @@
             <v>Net Income</v>
           </cell>
           <cell r="H208">
-            <v>-13489916.666666666</v>
+            <v>-13624916.666666666</v>
           </cell>
           <cell r="I208">
-            <v>-8055250</v>
+            <v>-7614250</v>
           </cell>
         </row>
         <row r="209">
@@ -4404,20 +4403,17 @@
             <v>Cumulative Net Income</v>
           </cell>
           <cell r="H209">
-            <v>-13489916.666666666</v>
+            <v>-13624916.666666666</v>
           </cell>
           <cell r="I209">
-            <v>-21545166.666666664</v>
+            <v>-21239166.666666664</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="14">
         <row r="53">
           <cell r="C53" t="str">
@@ -4599,10 +4595,10 @@
             <v>0</v>
           </cell>
           <cell r="G55">
-            <v>-13489916.666666666</v>
+            <v>-13624916.666666666</v>
           </cell>
           <cell r="H55">
-            <v>-8055250</v>
+            <v>-7614250</v>
           </cell>
           <cell r="I55">
             <v>-7629883.3333333321</v>
@@ -4751,139 +4747,139 @@
             <v>0</v>
           </cell>
           <cell r="G56">
-            <v>-13489916.666666666</v>
+            <v>-13624916.666666666</v>
           </cell>
           <cell r="H56">
-            <v>-21545166.666666664</v>
+            <v>-21239166.666666664</v>
           </cell>
           <cell r="I56">
-            <v>-29175049.999999996</v>
+            <v>-28869049.999999996</v>
           </cell>
           <cell r="J56">
-            <v>-36908333.333333328</v>
+            <v>-36602333.333333328</v>
           </cell>
           <cell r="K56">
-            <v>-44248016.666666657</v>
+            <v>-43942016.666666657</v>
           </cell>
           <cell r="L56">
-            <v>-51191099.999999985</v>
+            <v>-50885099.999999985</v>
           </cell>
           <cell r="M56">
-            <v>-57740583.333333313</v>
+            <v>-57434583.333333313</v>
           </cell>
           <cell r="N56">
-            <v>-63893466.666666642</v>
+            <v>-63587466.666666642</v>
           </cell>
           <cell r="O56">
-            <v>-70671949.99999997</v>
+            <v>-70365949.99999997</v>
           </cell>
           <cell r="P56">
-            <v>-77313581.666666642</v>
+            <v>-77007581.666666642</v>
           </cell>
           <cell r="Q56">
-            <v>-80225478.333333313</v>
+            <v>-79919478.333333313</v>
           </cell>
           <cell r="R56">
-            <v>-81897609.999999985</v>
+            <v>-81591609.999999985</v>
           </cell>
           <cell r="S56">
-            <v>-82569741.666666657</v>
+            <v>-82263741.666666657</v>
           </cell>
           <cell r="T56">
-            <v>-83241873.333333328</v>
+            <v>-82935873.333333328</v>
           </cell>
           <cell r="U56">
-            <v>-83914005</v>
+            <v>-83608005</v>
           </cell>
           <cell r="V56">
-            <v>-84586136.666666672</v>
+            <v>-84280136.666666672</v>
           </cell>
           <cell r="W56">
-            <v>-85258268.333333343</v>
+            <v>-84952268.333333343</v>
           </cell>
           <cell r="X56">
-            <v>-85930400.000000015</v>
+            <v>-85624400.000000015</v>
           </cell>
           <cell r="Y56">
-            <v>-86602531.666666687</v>
+            <v>-86296531.666666687</v>
           </cell>
           <cell r="Z56">
-            <v>-87274663.333333358</v>
+            <v>-86968663.333333358</v>
           </cell>
           <cell r="AA56">
-            <v>-91671715.00000003</v>
+            <v>-91365715.00000003</v>
           </cell>
           <cell r="AB56">
-            <v>-92315667.766666695</v>
+            <v>-92009667.766666695</v>
           </cell>
           <cell r="AC56">
-            <v>-84502166.483333349</v>
+            <v>-84196166.483333349</v>
           </cell>
           <cell r="AD56">
-            <v>-73871803.650000006</v>
+            <v>-73565803.650000006</v>
           </cell>
           <cell r="AE56">
-            <v>-63241440.816666663</v>
+            <v>-62935440.816666663</v>
           </cell>
           <cell r="AF56">
-            <v>-52611077.983333319</v>
+            <v>-52305077.983333319</v>
           </cell>
           <cell r="AG56">
-            <v>-41980715.149999976</v>
+            <v>-41674715.149999976</v>
           </cell>
           <cell r="AH56">
-            <v>-31350352.316666637</v>
+            <v>-31044352.316666637</v>
           </cell>
           <cell r="AI56">
-            <v>-20719989.483333297</v>
+            <v>-20413989.483333297</v>
           </cell>
           <cell r="AJ56">
-            <v>-10089626.649999958</v>
+            <v>-9783626.6499999575</v>
           </cell>
           <cell r="AK56">
-            <v>540736.18333338201</v>
+            <v>846736.18333338201</v>
           </cell>
           <cell r="AL56">
-            <v>11171099.016666722</v>
+            <v>11477099.016666722</v>
           </cell>
           <cell r="AM56">
-            <v>13344007.800000053</v>
+            <v>13650007.800000053</v>
           </cell>
           <cell r="AN56">
-            <v>23995625.412833389</v>
+            <v>24301625.412833389</v>
           </cell>
           <cell r="AO56">
-            <v>50307416.983666733</v>
+            <v>50613416.983666733</v>
           </cell>
           <cell r="AP56">
-            <v>81838441.497500077</v>
+            <v>82144441.497500077</v>
           </cell>
           <cell r="AQ56">
-            <v>113369466.01133342</v>
+            <v>113675466.01133342</v>
           </cell>
           <cell r="AR56">
-            <v>144900490.52516678</v>
+            <v>145206490.52516678</v>
           </cell>
           <cell r="AS56">
-            <v>176431515.03900012</v>
+            <v>176737515.03900012</v>
           </cell>
           <cell r="AT56">
-            <v>207962539.55283347</v>
+            <v>208268539.55283347</v>
           </cell>
           <cell r="AU56">
-            <v>239493564.06666681</v>
+            <v>239799564.06666681</v>
           </cell>
           <cell r="AV56">
-            <v>271024588.58050019</v>
+            <v>271330588.58050019</v>
           </cell>
           <cell r="AW56">
-            <v>302555613.09433353</v>
+            <v>302861613.09433353</v>
           </cell>
           <cell r="AX56">
-            <v>334086637.60816687</v>
+            <v>334392637.60816687</v>
           </cell>
           <cell r="AY56">
-            <v>349957488.16400021</v>
+            <v>350263488.16400021</v>
           </cell>
         </row>
         <row r="57">
@@ -4903,10 +4899,10 @@
             <v>0</v>
           </cell>
           <cell r="G57">
-            <v>-21951500</v>
+            <v>-22086500</v>
           </cell>
           <cell r="H57">
-            <v>-8787000</v>
+            <v>-8346000</v>
           </cell>
           <cell r="I57">
             <v>-7550299.9999999991</v>
@@ -5055,139 +5051,139 @@
             <v>0</v>
           </cell>
           <cell r="G58">
-            <v>-21951500</v>
+            <v>-22086500</v>
           </cell>
           <cell r="H58">
-            <v>-30738500</v>
+            <v>-30432500</v>
           </cell>
           <cell r="I58">
-            <v>-38288800</v>
+            <v>-37982800</v>
           </cell>
           <cell r="J58">
-            <v>-45862500</v>
+            <v>-45556500</v>
           </cell>
           <cell r="K58">
-            <v>-53042600</v>
+            <v>-52736600</v>
           </cell>
           <cell r="L58">
-            <v>-59826100</v>
+            <v>-59520100</v>
           </cell>
           <cell r="M58">
-            <v>-66216000</v>
+            <v>-65910000</v>
           </cell>
           <cell r="N58">
-            <v>-72209300</v>
+            <v>-71903300</v>
           </cell>
           <cell r="O58">
-            <v>-78828200</v>
+            <v>-78522200</v>
           </cell>
           <cell r="P58">
-            <v>-85388915</v>
+            <v>-85082915</v>
           </cell>
           <cell r="Q58">
-            <v>-88139895</v>
+            <v>-87833895</v>
           </cell>
           <cell r="R58">
-            <v>-89651110</v>
+            <v>-89345110</v>
           </cell>
           <cell r="S58">
-            <v>-90162325</v>
+            <v>-89856325</v>
           </cell>
           <cell r="T58">
-            <v>-90673540</v>
+            <v>-90367540</v>
           </cell>
           <cell r="U58">
-            <v>-91184755</v>
+            <v>-90878755</v>
           </cell>
           <cell r="V58">
-            <v>-91695970</v>
+            <v>-91389970</v>
           </cell>
           <cell r="W58">
-            <v>-92207185</v>
+            <v>-91901185</v>
           </cell>
           <cell r="X58">
-            <v>-92718400</v>
+            <v>-92412400</v>
           </cell>
           <cell r="Y58">
-            <v>-93229615</v>
+            <v>-92923615</v>
           </cell>
           <cell r="Z58">
-            <v>-93740830</v>
+            <v>-93434830</v>
           </cell>
           <cell r="AA58">
-            <v>-97976965</v>
+            <v>-97670965</v>
           </cell>
           <cell r="AB58">
-            <v>-98460001.099999994</v>
+            <v>-98154001.099999994</v>
           </cell>
           <cell r="AC58">
-            <v>-90485583.149999991</v>
+            <v>-90179583.149999991</v>
           </cell>
           <cell r="AD58">
-            <v>-79694303.649999991</v>
+            <v>-79388303.649999991</v>
           </cell>
           <cell r="AE58">
-            <v>-68903024.149999991</v>
+            <v>-68597024.149999991</v>
           </cell>
           <cell r="AF58">
-            <v>-58111744.649999984</v>
+            <v>-57805744.649999984</v>
           </cell>
           <cell r="AG58">
-            <v>-47320465.149999976</v>
+            <v>-47014465.149999976</v>
           </cell>
           <cell r="AH58">
-            <v>-36529185.649999969</v>
+            <v>-36223185.649999969</v>
           </cell>
           <cell r="AI58">
-            <v>-25737906.149999961</v>
+            <v>-25431906.149999961</v>
           </cell>
           <cell r="AJ58">
-            <v>-14946626.649999956</v>
+            <v>-14640626.649999956</v>
           </cell>
           <cell r="AK58">
-            <v>-4155347.1499999501</v>
+            <v>-3849347.1499999501</v>
           </cell>
           <cell r="AL58">
-            <v>6635932.3500000555</v>
+            <v>6941932.3500000555</v>
           </cell>
           <cell r="AM58">
-            <v>8969757.8000000529</v>
+            <v>9275757.8000000529</v>
           </cell>
           <cell r="AN58">
-            <v>19782292.079500057</v>
+            <v>20088292.079500057</v>
           </cell>
           <cell r="AO58">
-            <v>46255000.317000069</v>
+            <v>46561000.317000069</v>
           </cell>
           <cell r="AP58">
-            <v>77946941.497500092</v>
+            <v>78252941.497500092</v>
           </cell>
           <cell r="AQ58">
-            <v>109638882.67800011</v>
+            <v>109944882.67800011</v>
           </cell>
           <cell r="AR58">
-            <v>141330823.85850012</v>
+            <v>141636823.85850012</v>
           </cell>
           <cell r="AS58">
-            <v>173022765.03900015</v>
+            <v>173328765.03900015</v>
           </cell>
           <cell r="AT58">
-            <v>204714706.21950018</v>
+            <v>205020706.21950018</v>
           </cell>
           <cell r="AU58">
-            <v>236406647.40000021</v>
+            <v>236712647.40000021</v>
           </cell>
           <cell r="AV58">
-            <v>268098588.58050025</v>
+            <v>268404588.58050025</v>
           </cell>
           <cell r="AW58">
-            <v>299790529.76100028</v>
+            <v>300096529.76100028</v>
           </cell>
           <cell r="AX58">
-            <v>331482470.94150031</v>
+            <v>331788470.94150031</v>
           </cell>
           <cell r="AY58">
-            <v>347514238.16400033</v>
+            <v>347820238.16400033</v>
           </cell>
         </row>
         <row r="59">
@@ -5195,19 +5191,19 @@
             <v>Cumulative Cash with Investment</v>
           </cell>
           <cell r="C59">
-            <v>45862500</v>
+            <v>45556500</v>
           </cell>
           <cell r="D59">
-            <v>45862500</v>
+            <v>45556500</v>
           </cell>
           <cell r="E59">
-            <v>45862500</v>
+            <v>45556500</v>
           </cell>
           <cell r="F59">
-            <v>45862500</v>
+            <v>45556500</v>
           </cell>
           <cell r="G59">
-            <v>23911000</v>
+            <v>23470000</v>
           </cell>
           <cell r="H59">
             <v>15124000</v>
@@ -5343,61 +5339,43 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
       <sheetData sheetId="21"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="39"/>
       <sheetData sheetId="40"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-      <sheetData sheetId="51" refreshError="1"/>
-      <sheetData sheetId="52" refreshError="1"/>
-      <sheetData sheetId="53" refreshError="1"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
+      <sheetData sheetId="45"/>
+      <sheetData sheetId="46"/>
+      <sheetData sheetId="47"/>
+      <sheetData sheetId="48"/>
+      <sheetData sheetId="51"/>
+      <sheetData sheetId="53"/>
       <sheetData sheetId="54"/>
-      <sheetData sheetId="55" refreshError="1"/>
+      <sheetData sheetId="55"/>
       <sheetData sheetId="56"/>
-      <sheetData sheetId="57" refreshError="1"/>
-      <sheetData sheetId="58" refreshError="1"/>
-      <sheetData sheetId="59" refreshError="1"/>
-      <sheetData sheetId="60" refreshError="1"/>
-      <sheetData sheetId="61" refreshError="1"/>
-      <sheetData sheetId="62" refreshError="1"/>
+      <sheetData sheetId="57"/>
+      <sheetData sheetId="58"/>
+      <sheetData sheetId="60"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5695,8 +5673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819931B1-2B25-3E45-BFCC-50666A44CCD7}">
   <dimension ref="A3:C105"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5742,11 +5720,11 @@
       </c>
       <c r="B6" s="17">
         <f>'[1]FIN-P&amp;L_CWS'!H111</f>
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C6" s="17">
         <f>'[1]FIN-P&amp;L_CWS'!I111</f>
-        <v>107</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5784,11 +5762,11 @@
       </c>
       <c r="B9" s="14">
         <f>'[1]FIN-P&amp;L_CWS'!H114</f>
-        <v>1092000</v>
+        <v>672000</v>
       </c>
       <c r="C9" s="14">
         <f>'[1]FIN-P&amp;L_CWS'!I114</f>
-        <v>1498000</v>
+        <v>2870000</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5798,11 +5776,11 @@
       </c>
       <c r="B10" s="14">
         <f>'[1]FIN-P&amp;L_CWS'!H115</f>
-        <v>741000</v>
+        <v>456000</v>
       </c>
       <c r="C10" s="14">
         <f>'[1]FIN-P&amp;L_CWS'!I115</f>
-        <v>1016500</v>
+        <v>1947500</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -5812,11 +5790,11 @@
       </c>
       <c r="B11" s="14">
         <f>'[1]FIN-P&amp;L_CWS'!H116</f>
-        <v>351000</v>
+        <v>216000</v>
       </c>
       <c r="C11" s="14">
         <f>'[1]FIN-P&amp;L_CWS'!I116</f>
-        <v>481500</v>
+        <v>922500</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -5994,11 +5972,11 @@
       </c>
       <c r="B24" s="19">
         <f>'[1]FIN-P&amp;L_CWS'!H129</f>
-        <v>351000</v>
+        <v>216000</v>
       </c>
       <c r="C24" s="19">
         <f>'[1]FIN-P&amp;L_CWS'!I129</f>
-        <v>481500</v>
+        <v>922500</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -7100,11 +7078,11 @@
       </c>
       <c r="B103" s="23">
         <f>'[1]FIN-P&amp;L_CWS'!H208</f>
-        <v>-13489916.666666666</v>
+        <v>-13624916.666666666</v>
       </c>
       <c r="C103" s="23">
         <f>'[1]FIN-P&amp;L_CWS'!I208</f>
-        <v>-8055250</v>
+        <v>-7614250</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -7114,11 +7092,11 @@
       </c>
       <c r="B104" s="25">
         <f>'[1]FIN-P&amp;L_CWS'!H209</f>
-        <v>-13489916.666666666</v>
+        <v>-13624916.666666666</v>
       </c>
       <c r="C104" s="25">
         <f>'[1]FIN-P&amp;L_CWS'!I209</f>
-        <v>-21545166.666666664</v>
+        <v>-21239166.666666664</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>

--- a/SourceCode/FIN.xlsx
+++ b/SourceCode/FIN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwo/Library/Mobile Documents/com~apple~CloudDocs/Librero/dss/fin-modeling/SourceCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwong23/Library/Mobile Documents/com~apple~CloudDocs/Librero/dss/fin-modeling/SourceCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56268404-BD54-154E-9927-86F353D00D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999EDCD6-0BF2-4F4F-B25B-00BF30FEF98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-7880" yWindow="-26860" windowWidth="12100" windowHeight="20500" xr2:uid="{B2C94D60-86EF-EB41-9953-AD9E74885412}"/>
+    <workbookView xWindow="16380" yWindow="460" windowWidth="17220" windowHeight="15460" xr2:uid="{B2C94D60-86EF-EB41-9953-AD9E74885412}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="General;;"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(* &quot;&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="General;;"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(* &quot;&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -153,59 +153,59 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Moneda [0]" xfId="2" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -223,7 +223,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-MX"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -280,7 +280,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Profit and Loss </c:v>
+                  <c:v>Profit and Loss</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -300,126 +300,126 @@
                 <c:ptCount val="37"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v> YR 0 </c:v>
+                    <c:v>YR 0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v> YR 1 </c:v>
+                    <c:v>YR 1</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v> YR 2 </c:v>
+                    <c:v>YR 2</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v> YR 3 </c:v>
+                    <c:v>YR 3</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -429,7 +429,7 @@
             <c:numRef>
               <c:f>[1]FIN_CHARTDAT!$C$55:$AM$55</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -447,28 +447,28 @@
                   <c:v>-13624916.666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7614250</c:v>
+                  <c:v>-7053550</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7629883.3333333321</c:v>
+                  <c:v>-7614283.3333333321</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7733283.3333333321</c:v>
+                  <c:v>-7713183.3333333321</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7339683.3333333321</c:v>
+                  <c:v>-7313283.3333333321</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6943083.3333333321</c:v>
+                  <c:v>-6916683.3333333321</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6549483.3333333321</c:v>
+                  <c:v>-6516783.3333333321</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-6152883.3333333321</c:v>
+                  <c:v>-6113883.3333333321</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6778483.3333333321</c:v>
+                  <c:v>-6745783.3333333321</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>-6641631.6666666679</c:v>
@@ -561,7 +561,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Cumulative Profit &amp; Loss </c:v>
+                  <c:v>Cumulative Profit &amp; Loss</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -581,126 +581,126 @@
                 <c:ptCount val="37"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v> YR 0 </c:v>
+                    <c:v>YR 0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v> YR 1 </c:v>
+                    <c:v>YR 1</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v> YR 2 </c:v>
+                    <c:v>YR 2</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v> YR 3 </c:v>
+                    <c:v>YR 3</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -710,7 +710,7 @@
             <c:numRef>
               <c:f>[1]FIN_CHARTDAT!$C$56:$AM$56</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -728,100 +728,100 @@
                   <c:v>-13624916.666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-21239166.666666664</c:v>
+                  <c:v>-20678466.666666664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-28869049.999999996</c:v>
+                  <c:v>-28292749.999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-36602333.333333328</c:v>
+                  <c:v>-36005933.333333328</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-43942016.666666657</c:v>
+                  <c:v>-43319216.666666657</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-50885099.999999985</c:v>
+                  <c:v>-50235899.999999985</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-57434583.333333313</c:v>
+                  <c:v>-56752683.333333313</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-63587466.666666642</c:v>
+                  <c:v>-62866566.666666642</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-70365949.99999997</c:v>
+                  <c:v>-69612349.99999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-77007581.666666642</c:v>
+                  <c:v>-76253981.666666642</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-79919478.333333313</c:v>
+                  <c:v>-79165878.333333313</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-81591609.999999985</c:v>
+                  <c:v>-80838009.999999985</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-82263741.666666657</c:v>
+                  <c:v>-81510141.666666657</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-82935873.333333328</c:v>
+                  <c:v>-82182273.333333328</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-83608005</c:v>
+                  <c:v>-82854405</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-84280136.666666672</c:v>
+                  <c:v>-83526536.666666672</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-84952268.333333343</c:v>
+                  <c:v>-84198668.333333343</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-85624400.000000015</c:v>
+                  <c:v>-84870800.000000015</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-86296531.666666687</c:v>
+                  <c:v>-85542931.666666687</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-86968663.333333358</c:v>
+                  <c:v>-86215063.333333358</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-91365715.00000003</c:v>
+                  <c:v>-90612115.00000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-92009667.766666695</c:v>
+                  <c:v>-91256067.766666695</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-84196166.483333349</c:v>
+                  <c:v>-83442566.483333349</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-73565803.650000006</c:v>
+                  <c:v>-72812203.650000006</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-62935440.816666663</c:v>
+                  <c:v>-62181840.816666663</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-52305077.983333319</c:v>
+                  <c:v>-51551477.983333319</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-41674715.149999976</c:v>
+                  <c:v>-40921115.149999976</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-31044352.316666637</c:v>
+                  <c:v>-30290752.316666637</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-20413989.483333297</c:v>
+                  <c:v>-19660389.483333297</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-9783626.6499999575</c:v>
+                  <c:v>-9030026.6499999575</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>846736.18333338201</c:v>
+                  <c:v>1600336.183333382</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11477099.016666722</c:v>
+                  <c:v>12230699.016666722</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>13650007.800000053</c:v>
+                  <c:v>14403607.800000053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -842,7 +842,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Increase/Decrease Cash </c:v>
+                  <c:v>Increase/Decrease Cash</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -862,126 +862,126 @@
                 <c:ptCount val="37"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v> YR 0 </c:v>
+                    <c:v>YR 0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v> YR 1 </c:v>
+                    <c:v>YR 1</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v> YR 2 </c:v>
+                    <c:v>YR 2</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v> YR 3 </c:v>
+                    <c:v>YR 3</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -991,7 +991,7 @@
             <c:numRef>
               <c:f>[1]FIN_CHARTDAT!$C$57:$AM$57</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1009,28 +1009,28 @@
                   <c:v>-22086500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8346000</c:v>
+                  <c:v>-7785300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7550299.9999999991</c:v>
+                  <c:v>-7534699.9999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7573699.9999999991</c:v>
+                  <c:v>-7553599.9999999991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7180099.9999999991</c:v>
+                  <c:v>-7153699.9999999991</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6783499.9999999991</c:v>
+                  <c:v>-6757099.9999999991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6389899.9999999991</c:v>
+                  <c:v>-6357199.9999999991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5993299.9999999991</c:v>
+                  <c:v>-5954299.9999999991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6618899.9999999991</c:v>
+                  <c:v>-6586199.9999999991</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>-6560715.0000000009</c:v>
@@ -1123,7 +1123,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Cumulative Cash Flow </c:v>
+                  <c:v>Cumulative Cash Flow</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1143,126 +1143,126 @@
                 <c:ptCount val="37"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v> YR 0 </c:v>
+                    <c:v>YR 0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v> YR 1 </c:v>
+                    <c:v>YR 1</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v> YR 2 </c:v>
+                    <c:v>YR 2</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v> YR 3 </c:v>
+                    <c:v>YR 3</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1272,7 +1272,7 @@
             <c:numRef>
               <c:f>[1]FIN_CHARTDAT!$C$58:$AM$58</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1290,100 +1290,100 @@
                   <c:v>-22086500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-30432500</c:v>
+                  <c:v>-29871800</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-37982800</c:v>
+                  <c:v>-37406500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-45556500</c:v>
+                  <c:v>-44960100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-52736600</c:v>
+                  <c:v>-52113800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-59520100</c:v>
+                  <c:v>-58870900</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-65910000</c:v>
+                  <c:v>-65228100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-71903300</c:v>
+                  <c:v>-71182400</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-78522200</c:v>
+                  <c:v>-77768600</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-85082915</c:v>
+                  <c:v>-84329315</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-87833895</c:v>
+                  <c:v>-87080295</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-89345110</c:v>
+                  <c:v>-88591510</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-89856325</c:v>
+                  <c:v>-89102725</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-90367540</c:v>
+                  <c:v>-89613940</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-90878755</c:v>
+                  <c:v>-90125155</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-91389970</c:v>
+                  <c:v>-90636370</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-91901185</c:v>
+                  <c:v>-91147585</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-92412400</c:v>
+                  <c:v>-91658800</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-92923615</c:v>
+                  <c:v>-92170015</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-93434830</c:v>
+                  <c:v>-92681230</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-97670965</c:v>
+                  <c:v>-96917365</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-98154001.099999994</c:v>
+                  <c:v>-97400401.099999994</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-90179583.149999991</c:v>
+                  <c:v>-89425983.149999991</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-79388303.649999991</c:v>
+                  <c:v>-78634703.649999991</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-68597024.149999991</c:v>
+                  <c:v>-67843424.149999991</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-57805744.649999984</c:v>
+                  <c:v>-57052144.649999984</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-47014465.149999976</c:v>
+                  <c:v>-46260865.149999976</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-36223185.649999969</c:v>
+                  <c:v>-35469585.649999969</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-25431906.149999961</c:v>
+                  <c:v>-24678306.149999961</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-14640626.649999956</c:v>
+                  <c:v>-13887026.649999956</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-3849347.1499999501</c:v>
+                  <c:v>-3095747.1499999501</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6941932.3500000555</c:v>
+                  <c:v>7695532.3500000555</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9275757.8000000529</c:v>
+                  <c:v>10029357.800000053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1404,7 +1404,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Cumulative Cash with Investment </c:v>
+                  <c:v>Cumulative Cash with Investment</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1419,126 +1419,126 @@
                 <c:ptCount val="37"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v> YR 0 </c:v>
+                    <c:v>YR 0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v> YR 1 </c:v>
+                    <c:v>YR 1</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v> YR 2 </c:v>
+                    <c:v>YR 2</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v> YR 3 </c:v>
+                    <c:v>YR 3</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1548,40 +1548,40 @@
             <c:numRef>
               <c:f>[1]FIN_CHARTDAT!$C$59:$AM$59</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>45556500</c:v>
+                  <c:v>44960100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45556500</c:v>
+                  <c:v>44960100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45556500</c:v>
+                  <c:v>44960100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45556500</c:v>
+                  <c:v>44960100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23470000</c:v>
+                  <c:v>22873600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15124000</c:v>
+                  <c:v>15088300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7573700.0000000009</c:v>
+                  <c:v>7553600.0000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19166700</c:v>
+                  <c:v>19068600</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12383200</c:v>
+                  <c:v>12311500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5993300.0000000009</c:v>
+                  <c:v>5954300.0000000009</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1680,7 +1680,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Profit and Loss </c:v>
+                  <c:v>Profit and Loss</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1700,165 +1700,165 @@
                 <c:ptCount val="49"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="38">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="39">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="40">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="41">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="42">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="43">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="44">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="45">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="46">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="47">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="48">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v> YR 0 </c:v>
+                    <c:v>YR 0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v> YR 1 </c:v>
+                    <c:v>YR 1</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v> YR 2 </c:v>
+                    <c:v>YR 2</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v> YR 3 </c:v>
+                    <c:v>YR 3</c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v> YR 4 </c:v>
+                    <c:v>YR 4</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1868,7 +1868,7 @@
             <c:numRef>
               <c:f>[1]FIN_CHARTDAT!$C$55:$AY$55</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1886,28 +1886,28 @@
                   <c:v>-13624916.666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7614250</c:v>
+                  <c:v>-7053550</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7629883.3333333321</c:v>
+                  <c:v>-7614283.3333333321</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7733283.3333333321</c:v>
+                  <c:v>-7713183.3333333321</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7339683.3333333321</c:v>
+                  <c:v>-7313283.3333333321</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6943083.3333333321</c:v>
+                  <c:v>-6916683.3333333321</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6549483.3333333321</c:v>
+                  <c:v>-6516783.3333333321</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-6152883.3333333321</c:v>
+                  <c:v>-6113883.3333333321</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6778483.3333333321</c:v>
+                  <c:v>-6745783.3333333321</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>-6641631.6666666679</c:v>
@@ -2036,7 +2036,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Cumulative Profit &amp; Loss </c:v>
+                  <c:v>Cumulative Profit &amp; Loss</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2056,165 +2056,165 @@
                 <c:ptCount val="49"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="38">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="39">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="40">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="41">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="42">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="43">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="44">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="45">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="46">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="47">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="48">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v> YR 0 </c:v>
+                    <c:v>YR 0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v> YR 1 </c:v>
+                    <c:v>YR 1</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v> YR 2 </c:v>
+                    <c:v>YR 2</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v> YR 3 </c:v>
+                    <c:v>YR 3</c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v> YR 4 </c:v>
+                    <c:v>YR 4</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2224,7 +2224,7 @@
             <c:numRef>
               <c:f>[1]FIN_CHARTDAT!$C$56:$AY$56</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2242,136 +2242,136 @@
                   <c:v>-13624916.666666666</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-21239166.666666664</c:v>
+                  <c:v>-20678466.666666664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-28869049.999999996</c:v>
+                  <c:v>-28292749.999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-36602333.333333328</c:v>
+                  <c:v>-36005933.333333328</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-43942016.666666657</c:v>
+                  <c:v>-43319216.666666657</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-50885099.999999985</c:v>
+                  <c:v>-50235899.999999985</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-57434583.333333313</c:v>
+                  <c:v>-56752683.333333313</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-63587466.666666642</c:v>
+                  <c:v>-62866566.666666642</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-70365949.99999997</c:v>
+                  <c:v>-69612349.99999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-77007581.666666642</c:v>
+                  <c:v>-76253981.666666642</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-79919478.333333313</c:v>
+                  <c:v>-79165878.333333313</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-81591609.999999985</c:v>
+                  <c:v>-80838009.999999985</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-82263741.666666657</c:v>
+                  <c:v>-81510141.666666657</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-82935873.333333328</c:v>
+                  <c:v>-82182273.333333328</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-83608005</c:v>
+                  <c:v>-82854405</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-84280136.666666672</c:v>
+                  <c:v>-83526536.666666672</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-84952268.333333343</c:v>
+                  <c:v>-84198668.333333343</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-85624400.000000015</c:v>
+                  <c:v>-84870800.000000015</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-86296531.666666687</c:v>
+                  <c:v>-85542931.666666687</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-86968663.333333358</c:v>
+                  <c:v>-86215063.333333358</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-91365715.00000003</c:v>
+                  <c:v>-90612115.00000003</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-92009667.766666695</c:v>
+                  <c:v>-91256067.766666695</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-84196166.483333349</c:v>
+                  <c:v>-83442566.483333349</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-73565803.650000006</c:v>
+                  <c:v>-72812203.650000006</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-62935440.816666663</c:v>
+                  <c:v>-62181840.816666663</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-52305077.983333319</c:v>
+                  <c:v>-51551477.983333319</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-41674715.149999976</c:v>
+                  <c:v>-40921115.149999976</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-31044352.316666637</c:v>
+                  <c:v>-30290752.316666637</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-20413989.483333297</c:v>
+                  <c:v>-19660389.483333297</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-9783626.6499999575</c:v>
+                  <c:v>-9030026.6499999575</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>846736.18333338201</c:v>
+                  <c:v>1600336.183333382</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11477099.016666722</c:v>
+                  <c:v>12230699.016666722</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>13650007.800000053</c:v>
+                  <c:v>14403607.800000053</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>24301625.412833389</c:v>
+                  <c:v>25055225.412833389</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>50613416.983666733</c:v>
+                  <c:v>51367016.983666733</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>82144441.497500077</c:v>
+                  <c:v>82898041.497500077</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>113675466.01133342</c:v>
+                  <c:v>114429066.01133342</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>145206490.52516678</c:v>
+                  <c:v>145960090.52516678</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>176737515.03900012</c:v>
+                  <c:v>177491115.03900012</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>208268539.55283347</c:v>
+                  <c:v>209022139.55283347</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>239799564.06666681</c:v>
+                  <c:v>240553164.06666681</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>271330588.58050019</c:v>
+                  <c:v>272084188.58050019</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>302861613.09433353</c:v>
+                  <c:v>303615213.09433353</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>334392637.60816687</c:v>
+                  <c:v>335146237.60816687</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>350263488.16400021</c:v>
+                  <c:v>351017088.16400021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2392,7 +2392,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Increase/Decrease Cash </c:v>
+                  <c:v>Increase/Decrease Cash</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2412,165 +2412,165 @@
                 <c:ptCount val="49"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="38">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="39">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="40">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="41">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="42">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="43">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="44">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="45">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="46">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="47">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="48">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v> YR 0 </c:v>
+                    <c:v>YR 0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v> YR 1 </c:v>
+                    <c:v>YR 1</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v> YR 2 </c:v>
+                    <c:v>YR 2</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v> YR 3 </c:v>
+                    <c:v>YR 3</c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v> YR 4 </c:v>
+                    <c:v>YR 4</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2580,7 +2580,7 @@
             <c:numRef>
               <c:f>[1]FIN_CHARTDAT!$C$57:$AY$57</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2598,28 +2598,28 @@
                   <c:v>-22086500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8346000</c:v>
+                  <c:v>-7785300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7550299.9999999991</c:v>
+                  <c:v>-7534699.9999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7573699.9999999991</c:v>
+                  <c:v>-7553599.9999999991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-7180099.9999999991</c:v>
+                  <c:v>-7153699.9999999991</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-6783499.9999999991</c:v>
+                  <c:v>-6757099.9999999991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6389899.9999999991</c:v>
+                  <c:v>-6357199.9999999991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-5993299.9999999991</c:v>
+                  <c:v>-5954299.9999999991</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-6618899.9999999991</c:v>
+                  <c:v>-6586199.9999999991</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>-6560715.0000000009</c:v>
@@ -2748,7 +2748,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Cumulative Cash Flow </c:v>
+                  <c:v>Cumulative Cash Flow</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2768,165 +2768,165 @@
                 <c:ptCount val="49"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="38">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="39">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="40">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="41">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="42">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="43">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="44">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="45">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="46">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="47">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="48">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v> YR 0 </c:v>
+                    <c:v>YR 0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v> YR 1 </c:v>
+                    <c:v>YR 1</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v> YR 2 </c:v>
+                    <c:v>YR 2</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v> YR 3 </c:v>
+                    <c:v>YR 3</c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v> YR 4 </c:v>
+                    <c:v>YR 4</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -2936,7 +2936,7 @@
             <c:numRef>
               <c:f>[1]FIN_CHARTDAT!$C$58:$AY$58</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2954,136 +2954,136 @@
                   <c:v>-22086500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-30432500</c:v>
+                  <c:v>-29871800</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-37982800</c:v>
+                  <c:v>-37406500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-45556500</c:v>
+                  <c:v>-44960100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-52736600</c:v>
+                  <c:v>-52113800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-59520100</c:v>
+                  <c:v>-58870900</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-65910000</c:v>
+                  <c:v>-65228100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-71903300</c:v>
+                  <c:v>-71182400</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-78522200</c:v>
+                  <c:v>-77768600</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-85082915</c:v>
+                  <c:v>-84329315</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-87833895</c:v>
+                  <c:v>-87080295</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-89345110</c:v>
+                  <c:v>-88591510</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-89856325</c:v>
+                  <c:v>-89102725</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-90367540</c:v>
+                  <c:v>-89613940</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-90878755</c:v>
+                  <c:v>-90125155</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-91389970</c:v>
+                  <c:v>-90636370</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-91901185</c:v>
+                  <c:v>-91147585</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-92412400</c:v>
+                  <c:v>-91658800</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-92923615</c:v>
+                  <c:v>-92170015</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-93434830</c:v>
+                  <c:v>-92681230</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-97670965</c:v>
+                  <c:v>-96917365</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-98154001.099999994</c:v>
+                  <c:v>-97400401.099999994</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-90179583.149999991</c:v>
+                  <c:v>-89425983.149999991</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-79388303.649999991</c:v>
+                  <c:v>-78634703.649999991</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-68597024.149999991</c:v>
+                  <c:v>-67843424.149999991</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-57805744.649999984</c:v>
+                  <c:v>-57052144.649999984</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-47014465.149999976</c:v>
+                  <c:v>-46260865.149999976</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-36223185.649999969</c:v>
+                  <c:v>-35469585.649999969</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-25431906.149999961</c:v>
+                  <c:v>-24678306.149999961</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-14640626.649999956</c:v>
+                  <c:v>-13887026.649999956</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-3849347.1499999501</c:v>
+                  <c:v>-3095747.1499999501</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6941932.3500000555</c:v>
+                  <c:v>7695532.3500000555</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9275757.8000000529</c:v>
+                  <c:v>10029357.800000053</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>20088292.079500057</c:v>
+                  <c:v>20841892.079500057</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>46561000.317000069</c:v>
+                  <c:v>47314600.317000069</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>78252941.497500092</c:v>
+                  <c:v>79006541.497500092</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>109944882.67800011</c:v>
+                  <c:v>110698482.67800011</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>141636823.85850012</c:v>
+                  <c:v>142390423.85850012</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>173328765.03900015</c:v>
+                  <c:v>174082365.03900015</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>205020706.21950018</c:v>
+                  <c:v>205774306.21950018</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>236712647.40000021</c:v>
+                  <c:v>237466247.40000021</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>268404588.58050025</c:v>
+                  <c:v>269158188.58050025</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>300096529.76100028</c:v>
+                  <c:v>300850129.76100028</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>331788470.94150031</c:v>
+                  <c:v>332542070.94150031</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>347820238.16400033</c:v>
+                  <c:v>348573838.16400033</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3104,7 +3104,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v> Cumulative Cash with Investment </c:v>
+                  <c:v>Cumulative Cash with Investment</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3119,165 +3119,165 @@
                 <c:ptCount val="49"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v> Jan </c:v>
+                    <c:v>Jan</c:v>
                   </c:pt>
                   <c:pt idx="38">
-                    <c:v> Feb </c:v>
+                    <c:v>Feb</c:v>
                   </c:pt>
                   <c:pt idx="39">
-                    <c:v> Mar </c:v>
+                    <c:v>Mar</c:v>
                   </c:pt>
                   <c:pt idx="40">
-                    <c:v> Apr </c:v>
+                    <c:v>Apr</c:v>
                   </c:pt>
                   <c:pt idx="41">
-                    <c:v> May </c:v>
+                    <c:v>May</c:v>
                   </c:pt>
                   <c:pt idx="42">
-                    <c:v> Jun </c:v>
+                    <c:v>Jun</c:v>
                   </c:pt>
                   <c:pt idx="43">
-                    <c:v> Jul </c:v>
+                    <c:v>Jul</c:v>
                   </c:pt>
                   <c:pt idx="44">
-                    <c:v> Aug </c:v>
+                    <c:v>Aug</c:v>
                   </c:pt>
                   <c:pt idx="45">
-                    <c:v> Sep </c:v>
+                    <c:v>Sep</c:v>
                   </c:pt>
                   <c:pt idx="46">
-                    <c:v> Oct </c:v>
+                    <c:v>Oct</c:v>
                   </c:pt>
                   <c:pt idx="47">
-                    <c:v> Nov </c:v>
+                    <c:v>Nov</c:v>
                   </c:pt>
                   <c:pt idx="48">
-                    <c:v> Dec </c:v>
+                    <c:v>Dec</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v> YR 0 </c:v>
+                    <c:v>YR 0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v> YR 1 </c:v>
+                    <c:v>YR 1</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v> YR 2 </c:v>
+                    <c:v>YR 2</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v> YR 3 </c:v>
+                    <c:v>YR 3</c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v> YR 4 </c:v>
+                    <c:v>YR 4</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -3287,40 +3287,40 @@
             <c:numRef>
               <c:f>[1]FIN_CHARTDAT!$C$59:$AY$59</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>45556500</c:v>
+                  <c:v>44960100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45556500</c:v>
+                  <c:v>44960100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45556500</c:v>
+                  <c:v>44960100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45556500</c:v>
+                  <c:v>44960100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23470000</c:v>
+                  <c:v>22873600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15124000</c:v>
+                  <c:v>15088300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7573700.0000000009</c:v>
+                  <c:v>7553600.0000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>19166700</c:v>
+                  <c:v>19068600</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12383200</c:v>
+                  <c:v>12311500</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5993300.0000000009</c:v>
+                  <c:v>5954300.0000000009</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3484,7 +3484,7 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3585,6 +3585,7 @@
       <sheetName val="COGS_CHART-INVENTORY"/>
       <sheetName val="COGS-INVENTORY_CWS"/>
       <sheetName val="COGS-PRICE-MARGIN_CWS"/>
+      <sheetName val="Contribución"/>
       <sheetName val="COGS_DB"/>
       <sheetName val="COGS_CHART_MARGIN"/>
       <sheetName val="REV_CHART-MONTH-SPREAD"/>
@@ -3614,12 +3615,12 @@
       <sheetName val="STAFF_CHART TOT HC"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6">
         <row r="108">
           <cell r="H108" t="str">
@@ -3631,13 +3632,13 @@
         </row>
         <row r="111">
           <cell r="B111" t="str">
-            <v>Unit Sales</v>
+            <v>Unidades Vendidas</v>
           </cell>
           <cell r="H111">
             <v>48</v>
           </cell>
           <cell r="I111">
-            <v>205</v>
+            <v>221</v>
           </cell>
         </row>
         <row r="113">
@@ -3653,7 +3654,7 @@
             <v>672000</v>
           </cell>
           <cell r="I114">
-            <v>2870000</v>
+            <v>3646000</v>
           </cell>
         </row>
         <row r="115">
@@ -3664,7 +3665,7 @@
             <v>456000</v>
           </cell>
           <cell r="I115">
-            <v>1947500</v>
+            <v>2216800</v>
           </cell>
         </row>
         <row r="116">
@@ -3675,7 +3676,7 @@
             <v>216000</v>
           </cell>
           <cell r="I116">
-            <v>922500</v>
+            <v>1429200</v>
           </cell>
         </row>
         <row r="117">
@@ -3686,7 +3687,7 @@
             <v>0.16071428571428573</v>
           </cell>
           <cell r="I117">
-            <v>0.16071428571428573</v>
+            <v>0.40616883116883118</v>
           </cell>
         </row>
         <row r="119">
@@ -3740,7 +3741,7 @@
             <v>0</v>
           </cell>
           <cell r="I125">
-            <v>0</v>
+            <v>54000</v>
           </cell>
         </row>
         <row r="126">
@@ -3762,7 +3763,7 @@
             <v>0</v>
           </cell>
           <cell r="I127">
-            <v>0</v>
+            <v>54000</v>
           </cell>
         </row>
         <row r="129">
@@ -3773,7 +3774,7 @@
             <v>216000</v>
           </cell>
           <cell r="I129">
-            <v>922500</v>
+            <v>1483200</v>
           </cell>
         </row>
         <row r="131">
@@ -3920,7 +3921,7 @@
         </row>
         <row r="149">
           <cell r="B149" t="str">
-            <v>Salaries Wages Bonus &amp; Commission</v>
+            <v>Salarios Bonos &amp; Comisiones</v>
           </cell>
         </row>
         <row r="150">
@@ -3969,7 +3970,7 @@
         </row>
         <row r="154">
           <cell r="B154" t="str">
-            <v>Total Sal  Wages Bonus &amp; Comm</v>
+            <v>Total Salrario Bonos &amp; Comsn</v>
           </cell>
           <cell r="H154">
             <v>2725000</v>
@@ -4395,7 +4396,7 @@
             <v>-13624916.666666666</v>
           </cell>
           <cell r="I208">
-            <v>-7614250</v>
+            <v>-7053550</v>
           </cell>
         </row>
         <row r="209">
@@ -4406,14 +4407,17 @@
             <v>-13624916.666666666</v>
           </cell>
           <cell r="I209">
-            <v>-21239166.666666664</v>
+            <v>-20678466.666666664</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
       <sheetData sheetId="14">
         <row r="53">
           <cell r="C53" t="str">
@@ -4598,28 +4602,28 @@
             <v>-13624916.666666666</v>
           </cell>
           <cell r="H55">
-            <v>-7614250</v>
+            <v>-7053550</v>
           </cell>
           <cell r="I55">
-            <v>-7629883.3333333321</v>
+            <v>-7614283.3333333321</v>
           </cell>
           <cell r="J55">
-            <v>-7733283.3333333321</v>
+            <v>-7713183.3333333321</v>
           </cell>
           <cell r="K55">
-            <v>-7339683.3333333321</v>
+            <v>-7313283.3333333321</v>
           </cell>
           <cell r="L55">
-            <v>-6943083.3333333321</v>
+            <v>-6916683.3333333321</v>
           </cell>
           <cell r="M55">
-            <v>-6549483.3333333321</v>
+            <v>-6516783.3333333321</v>
           </cell>
           <cell r="N55">
-            <v>-6152883.3333333321</v>
+            <v>-6113883.3333333321</v>
           </cell>
           <cell r="O55">
-            <v>-6778483.3333333321</v>
+            <v>-6745783.3333333321</v>
           </cell>
           <cell r="P55">
             <v>-6641631.6666666679</v>
@@ -4750,136 +4754,136 @@
             <v>-13624916.666666666</v>
           </cell>
           <cell r="H56">
-            <v>-21239166.666666664</v>
+            <v>-20678466.666666664</v>
           </cell>
           <cell r="I56">
-            <v>-28869049.999999996</v>
+            <v>-28292749.999999996</v>
           </cell>
           <cell r="J56">
-            <v>-36602333.333333328</v>
+            <v>-36005933.333333328</v>
           </cell>
           <cell r="K56">
-            <v>-43942016.666666657</v>
+            <v>-43319216.666666657</v>
           </cell>
           <cell r="L56">
-            <v>-50885099.999999985</v>
+            <v>-50235899.999999985</v>
           </cell>
           <cell r="M56">
-            <v>-57434583.333333313</v>
+            <v>-56752683.333333313</v>
           </cell>
           <cell r="N56">
-            <v>-63587466.666666642</v>
+            <v>-62866566.666666642</v>
           </cell>
           <cell r="O56">
-            <v>-70365949.99999997</v>
+            <v>-69612349.99999997</v>
           </cell>
           <cell r="P56">
-            <v>-77007581.666666642</v>
+            <v>-76253981.666666642</v>
           </cell>
           <cell r="Q56">
-            <v>-79919478.333333313</v>
+            <v>-79165878.333333313</v>
           </cell>
           <cell r="R56">
-            <v>-81591609.999999985</v>
+            <v>-80838009.999999985</v>
           </cell>
           <cell r="S56">
-            <v>-82263741.666666657</v>
+            <v>-81510141.666666657</v>
           </cell>
           <cell r="T56">
-            <v>-82935873.333333328</v>
+            <v>-82182273.333333328</v>
           </cell>
           <cell r="U56">
-            <v>-83608005</v>
+            <v>-82854405</v>
           </cell>
           <cell r="V56">
-            <v>-84280136.666666672</v>
+            <v>-83526536.666666672</v>
           </cell>
           <cell r="W56">
-            <v>-84952268.333333343</v>
+            <v>-84198668.333333343</v>
           </cell>
           <cell r="X56">
-            <v>-85624400.000000015</v>
+            <v>-84870800.000000015</v>
           </cell>
           <cell r="Y56">
-            <v>-86296531.666666687</v>
+            <v>-85542931.666666687</v>
           </cell>
           <cell r="Z56">
-            <v>-86968663.333333358</v>
+            <v>-86215063.333333358</v>
           </cell>
           <cell r="AA56">
-            <v>-91365715.00000003</v>
+            <v>-90612115.00000003</v>
           </cell>
           <cell r="AB56">
-            <v>-92009667.766666695</v>
+            <v>-91256067.766666695</v>
           </cell>
           <cell r="AC56">
-            <v>-84196166.483333349</v>
+            <v>-83442566.483333349</v>
           </cell>
           <cell r="AD56">
-            <v>-73565803.650000006</v>
+            <v>-72812203.650000006</v>
           </cell>
           <cell r="AE56">
-            <v>-62935440.816666663</v>
+            <v>-62181840.816666663</v>
           </cell>
           <cell r="AF56">
-            <v>-52305077.983333319</v>
+            <v>-51551477.983333319</v>
           </cell>
           <cell r="AG56">
-            <v>-41674715.149999976</v>
+            <v>-40921115.149999976</v>
           </cell>
           <cell r="AH56">
-            <v>-31044352.316666637</v>
+            <v>-30290752.316666637</v>
           </cell>
           <cell r="AI56">
-            <v>-20413989.483333297</v>
+            <v>-19660389.483333297</v>
           </cell>
           <cell r="AJ56">
-            <v>-9783626.6499999575</v>
+            <v>-9030026.6499999575</v>
           </cell>
           <cell r="AK56">
-            <v>846736.18333338201</v>
+            <v>1600336.183333382</v>
           </cell>
           <cell r="AL56">
-            <v>11477099.016666722</v>
+            <v>12230699.016666722</v>
           </cell>
           <cell r="AM56">
-            <v>13650007.800000053</v>
+            <v>14403607.800000053</v>
           </cell>
           <cell r="AN56">
-            <v>24301625.412833389</v>
+            <v>25055225.412833389</v>
           </cell>
           <cell r="AO56">
-            <v>50613416.983666733</v>
+            <v>51367016.983666733</v>
           </cell>
           <cell r="AP56">
-            <v>82144441.497500077</v>
+            <v>82898041.497500077</v>
           </cell>
           <cell r="AQ56">
-            <v>113675466.01133342</v>
+            <v>114429066.01133342</v>
           </cell>
           <cell r="AR56">
-            <v>145206490.52516678</v>
+            <v>145960090.52516678</v>
           </cell>
           <cell r="AS56">
-            <v>176737515.03900012</v>
+            <v>177491115.03900012</v>
           </cell>
           <cell r="AT56">
-            <v>208268539.55283347</v>
+            <v>209022139.55283347</v>
           </cell>
           <cell r="AU56">
-            <v>239799564.06666681</v>
+            <v>240553164.06666681</v>
           </cell>
           <cell r="AV56">
-            <v>271330588.58050019</v>
+            <v>272084188.58050019</v>
           </cell>
           <cell r="AW56">
-            <v>302861613.09433353</v>
+            <v>303615213.09433353</v>
           </cell>
           <cell r="AX56">
-            <v>334392637.60816687</v>
+            <v>335146237.60816687</v>
           </cell>
           <cell r="AY56">
-            <v>350263488.16400021</v>
+            <v>351017088.16400021</v>
           </cell>
         </row>
         <row r="57">
@@ -4902,28 +4906,28 @@
             <v>-22086500</v>
           </cell>
           <cell r="H57">
-            <v>-8346000</v>
+            <v>-7785300</v>
           </cell>
           <cell r="I57">
-            <v>-7550299.9999999991</v>
+            <v>-7534699.9999999991</v>
           </cell>
           <cell r="J57">
-            <v>-7573699.9999999991</v>
+            <v>-7553599.9999999991</v>
           </cell>
           <cell r="K57">
-            <v>-7180099.9999999991</v>
+            <v>-7153699.9999999991</v>
           </cell>
           <cell r="L57">
-            <v>-6783499.9999999991</v>
+            <v>-6757099.9999999991</v>
           </cell>
           <cell r="M57">
-            <v>-6389899.9999999991</v>
+            <v>-6357199.9999999991</v>
           </cell>
           <cell r="N57">
-            <v>-5993299.9999999991</v>
+            <v>-5954299.9999999991</v>
           </cell>
           <cell r="O57">
-            <v>-6618899.9999999991</v>
+            <v>-6586199.9999999991</v>
           </cell>
           <cell r="P57">
             <v>-6560715.0000000009</v>
@@ -5054,136 +5058,136 @@
             <v>-22086500</v>
           </cell>
           <cell r="H58">
-            <v>-30432500</v>
+            <v>-29871800</v>
           </cell>
           <cell r="I58">
-            <v>-37982800</v>
+            <v>-37406500</v>
           </cell>
           <cell r="J58">
-            <v>-45556500</v>
+            <v>-44960100</v>
           </cell>
           <cell r="K58">
-            <v>-52736600</v>
+            <v>-52113800</v>
           </cell>
           <cell r="L58">
-            <v>-59520100</v>
+            <v>-58870900</v>
           </cell>
           <cell r="M58">
-            <v>-65910000</v>
+            <v>-65228100</v>
           </cell>
           <cell r="N58">
-            <v>-71903300</v>
+            <v>-71182400</v>
           </cell>
           <cell r="O58">
-            <v>-78522200</v>
+            <v>-77768600</v>
           </cell>
           <cell r="P58">
-            <v>-85082915</v>
+            <v>-84329315</v>
           </cell>
           <cell r="Q58">
-            <v>-87833895</v>
+            <v>-87080295</v>
           </cell>
           <cell r="R58">
-            <v>-89345110</v>
+            <v>-88591510</v>
           </cell>
           <cell r="S58">
-            <v>-89856325</v>
+            <v>-89102725</v>
           </cell>
           <cell r="T58">
-            <v>-90367540</v>
+            <v>-89613940</v>
           </cell>
           <cell r="U58">
-            <v>-90878755</v>
+            <v>-90125155</v>
           </cell>
           <cell r="V58">
-            <v>-91389970</v>
+            <v>-90636370</v>
           </cell>
           <cell r="W58">
-            <v>-91901185</v>
+            <v>-91147585</v>
           </cell>
           <cell r="X58">
-            <v>-92412400</v>
+            <v>-91658800</v>
           </cell>
           <cell r="Y58">
-            <v>-92923615</v>
+            <v>-92170015</v>
           </cell>
           <cell r="Z58">
-            <v>-93434830</v>
+            <v>-92681230</v>
           </cell>
           <cell r="AA58">
-            <v>-97670965</v>
+            <v>-96917365</v>
           </cell>
           <cell r="AB58">
-            <v>-98154001.099999994</v>
+            <v>-97400401.099999994</v>
           </cell>
           <cell r="AC58">
-            <v>-90179583.149999991</v>
+            <v>-89425983.149999991</v>
           </cell>
           <cell r="AD58">
-            <v>-79388303.649999991</v>
+            <v>-78634703.649999991</v>
           </cell>
           <cell r="AE58">
-            <v>-68597024.149999991</v>
+            <v>-67843424.149999991</v>
           </cell>
           <cell r="AF58">
-            <v>-57805744.649999984</v>
+            <v>-57052144.649999984</v>
           </cell>
           <cell r="AG58">
-            <v>-47014465.149999976</v>
+            <v>-46260865.149999976</v>
           </cell>
           <cell r="AH58">
-            <v>-36223185.649999969</v>
+            <v>-35469585.649999969</v>
           </cell>
           <cell r="AI58">
-            <v>-25431906.149999961</v>
+            <v>-24678306.149999961</v>
           </cell>
           <cell r="AJ58">
-            <v>-14640626.649999956</v>
+            <v>-13887026.649999956</v>
           </cell>
           <cell r="AK58">
-            <v>-3849347.1499999501</v>
+            <v>-3095747.1499999501</v>
           </cell>
           <cell r="AL58">
-            <v>6941932.3500000555</v>
+            <v>7695532.3500000555</v>
           </cell>
           <cell r="AM58">
-            <v>9275757.8000000529</v>
+            <v>10029357.800000053</v>
           </cell>
           <cell r="AN58">
-            <v>20088292.079500057</v>
+            <v>20841892.079500057</v>
           </cell>
           <cell r="AO58">
-            <v>46561000.317000069</v>
+            <v>47314600.317000069</v>
           </cell>
           <cell r="AP58">
-            <v>78252941.497500092</v>
+            <v>79006541.497500092</v>
           </cell>
           <cell r="AQ58">
-            <v>109944882.67800011</v>
+            <v>110698482.67800011</v>
           </cell>
           <cell r="AR58">
-            <v>141636823.85850012</v>
+            <v>142390423.85850012</v>
           </cell>
           <cell r="AS58">
-            <v>173328765.03900015</v>
+            <v>174082365.03900015</v>
           </cell>
           <cell r="AT58">
-            <v>205020706.21950018</v>
+            <v>205774306.21950018</v>
           </cell>
           <cell r="AU58">
-            <v>236712647.40000021</v>
+            <v>237466247.40000021</v>
           </cell>
           <cell r="AV58">
-            <v>268404588.58050025</v>
+            <v>269158188.58050025</v>
           </cell>
           <cell r="AW58">
-            <v>300096529.76100028</v>
+            <v>300850129.76100028</v>
           </cell>
           <cell r="AX58">
-            <v>331788470.94150031</v>
+            <v>332542070.94150031</v>
           </cell>
           <cell r="AY58">
-            <v>347820238.16400033</v>
+            <v>348573838.16400033</v>
           </cell>
         </row>
         <row r="59">
@@ -5191,37 +5195,37 @@
             <v>Cumulative Cash with Investment</v>
           </cell>
           <cell r="C59">
-            <v>45556500</v>
+            <v>44960100</v>
           </cell>
           <cell r="D59">
-            <v>45556500</v>
+            <v>44960100</v>
           </cell>
           <cell r="E59">
-            <v>45556500</v>
+            <v>44960100</v>
           </cell>
           <cell r="F59">
-            <v>45556500</v>
+            <v>44960100</v>
           </cell>
           <cell r="G59">
-            <v>23470000</v>
+            <v>22873600</v>
           </cell>
           <cell r="H59">
-            <v>15124000</v>
+            <v>15088300</v>
           </cell>
           <cell r="I59">
-            <v>7573700.0000000009</v>
+            <v>7553600.0000000009</v>
           </cell>
           <cell r="J59">
             <v>0</v>
           </cell>
           <cell r="K59">
-            <v>19166700</v>
+            <v>19068600</v>
           </cell>
           <cell r="L59">
-            <v>12383200</v>
+            <v>12311500</v>
           </cell>
           <cell r="M59">
-            <v>5993300.0000000009</v>
+            <v>5954300.0000000009</v>
           </cell>
           <cell r="N59">
             <v>0</v>
@@ -5339,43 +5343,62 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="60"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="44" refreshError="1"/>
+      <sheetData sheetId="45" refreshError="1"/>
+      <sheetData sheetId="46" refreshError="1"/>
+      <sheetData sheetId="47" refreshError="1"/>
+      <sheetData sheetId="48" refreshError="1"/>
+      <sheetData sheetId="49" refreshError="1"/>
+      <sheetData sheetId="50" refreshError="1"/>
+      <sheetData sheetId="51" refreshError="1"/>
+      <sheetData sheetId="52" refreshError="1"/>
+      <sheetData sheetId="53" refreshError="1"/>
+      <sheetData sheetId="54" refreshError="1"/>
+      <sheetData sheetId="55" refreshError="1"/>
+      <sheetData sheetId="56" refreshError="1"/>
+      <sheetData sheetId="57" refreshError="1"/>
+      <sheetData sheetId="58" refreshError="1"/>
+      <sheetData sheetId="59" refreshError="1"/>
+      <sheetData sheetId="60" refreshError="1"/>
+      <sheetData sheetId="61" refreshError="1"/>
+      <sheetData sheetId="62" refreshError="1"/>
+      <sheetData sheetId="63" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5674,10 +5697,10 @@
   <dimension ref="A3:C105"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A9" sqref="A9:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.1640625" style="1" customWidth="1"/>
     <col min="2" max="3" width="16.33203125" style="14" customWidth="1"/>
@@ -5716,7 +5739,7 @@
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B111</f>
-        <v>Unit Sales</v>
+        <v>Unidades Vendidas</v>
       </c>
       <c r="B6" s="17">
         <f>'[1]FIN-P&amp;L_CWS'!H111</f>
@@ -5724,7 +5747,7 @@
       </c>
       <c r="C6" s="17">
         <f>'[1]FIN-P&amp;L_CWS'!I111</f>
-        <v>205</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -5755,7 +5778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B114</f>
         <v>Product Revenue</v>
@@ -5766,10 +5789,10 @@
       </c>
       <c r="C9" s="14">
         <f>'[1]FIN-P&amp;L_CWS'!I114</f>
-        <v>2870000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3646000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B115</f>
         <v>Cost of Goods Sold</v>
@@ -5780,10 +5803,10 @@
       </c>
       <c r="C10" s="14">
         <f>'[1]FIN-P&amp;L_CWS'!I115</f>
-        <v>1947500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>2216800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B116</f>
         <v>Gross Margin $</v>
@@ -5794,10 +5817,10 @@
       </c>
       <c r="C11" s="14">
         <f>'[1]FIN-P&amp;L_CWS'!I116</f>
-        <v>922500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1429200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B117</f>
         <v>Gross Margin %</v>
@@ -5808,10 +5831,10 @@
       </c>
       <c r="C12" s="13">
         <f>'[1]FIN-P&amp;L_CWS'!I117</f>
-        <v>0.16071428571428573</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0.40616883116883118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <f>'[1]FIN-P&amp;L_CWS'!$B118</f>
         <v>0</v>
@@ -5825,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B119</f>
         <v>Ingreso Local Services Units Ingreso</v>
@@ -5839,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B120</f>
         <v>Servicio Ingreso</v>
@@ -5853,7 +5876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B121</f>
         <v>Software Maintenance Revenue</v>
@@ -5867,7 +5890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B122</f>
         <v>Total Software Revenue</v>
@@ -5881,7 +5904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <f>'[1]FIN-P&amp;L_CWS'!$B123</f>
         <v>0</v>
@@ -5895,7 +5918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B124</f>
         <v>Ingreso Domicilio Services Units Ingreso</v>
@@ -5909,7 +5932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B125</f>
         <v>Envío</v>
@@ -5920,10 +5943,10 @@
       </c>
       <c r="C20" s="14">
         <f>'[1]FIN-P&amp;L_CWS'!I125</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B126</f>
         <v>Recurring Service Revenue</v>
@@ -5937,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B127</f>
         <v>Total Service Revenue</v>
@@ -5948,10 +5971,10 @@
       </c>
       <c r="C22" s="14">
         <f>'[1]FIN-P&amp;L_CWS'!I127</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <f>'[1]FIN-P&amp;L_CWS'!$B128</f>
         <v>0</v>
@@ -5965,7 +5988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="17" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B129</f>
         <v>Net Revenue</v>
@@ -5976,7 +5999,7 @@
       </c>
       <c r="C24" s="19">
         <f>'[1]FIN-P&amp;L_CWS'!I129</f>
-        <v>922500</v>
+        <v>1483200</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -5986,10 +6009,6 @@
       </c>
       <c r="B25" s="14">
         <f>'[1]FIN-P&amp;L_CWS'!H130</f>
-        <v>0</v>
-      </c>
-      <c r="C25" s="14">
-        <f>'[1]FIN-P&amp;L_CWS'!I130</f>
         <v>0</v>
       </c>
     </row>
@@ -6007,7 +6026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <f>'[1]FIN-P&amp;L_CWS'!$B132</f>
         <v>0</v>
@@ -6021,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B133</f>
         <v>Total Marketing Expense</v>
@@ -6035,7 +6054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B134</f>
         <v>Total Direct Sales Expense</v>
@@ -6049,7 +6068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B135</f>
         <v>Total CRM &amp; Tech Support</v>
@@ -6063,7 +6082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B136</f>
         <v>Total Trip Costs</v>
@@ -6077,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <f>'[1]FIN-P&amp;L_CWS'!$B137</f>
         <v>0</v>
@@ -6091,7 +6110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="17" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B138</f>
         <v>Total Sales &amp; Marketing Costs</v>
@@ -6133,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B141</f>
         <v>Total IT</v>
@@ -6147,7 +6166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B142</f>
         <v>Total Systems Integration</v>
@@ -6161,7 +6180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B143</f>
         <v>Total Software Development</v>
@@ -6175,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B144</f>
         <v>Total Víveres y Manufactura</v>
@@ -6189,7 +6208,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B145</f>
         <v>Total Test Engineering</v>
@@ -6203,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B146</f>
         <v>Total Tech Ops Trips/Travel</v>
@@ -6217,7 +6236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="17" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B147</f>
         <v>Total Tech Ops</v>
@@ -6248,7 +6267,7 @@
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B149</f>
-        <v>Salaries Wages Bonus &amp; Commission</v>
+        <v>Salarios Bonos &amp; Comisiones</v>
       </c>
       <c r="B44" s="14">
         <f>'[1]FIN-P&amp;L_CWS'!H149</f>
@@ -6259,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B150</f>
         <v>Ejecutivo</v>
@@ -6273,7 +6292,7 @@
         <v>2145000</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B151</f>
         <v>Business Operations</v>
@@ -6287,7 +6306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B152</f>
         <v>Sales and Mkt</v>
@@ -6301,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B153</f>
         <v>Producción</v>
@@ -6315,10 +6334,10 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="17" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B154</f>
-        <v>Total Sal  Wages Bonus &amp; Comm</v>
+        <v>Total Salrario Bonos &amp; Comsn</v>
       </c>
       <c r="B49" s="19">
         <f>'[1]FIN-P&amp;L_CWS'!H154</f>
@@ -6357,7 +6376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B157</f>
         <v>Ejecutivo</v>
@@ -6371,7 +6390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B158</f>
         <v>Business Operations</v>
@@ -6385,7 +6404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B159</f>
         <v>Sales and Mkt</v>
@@ -6399,7 +6418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B160</f>
         <v>Producción</v>
@@ -6413,7 +6432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="17" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B161</f>
         <v>Total Consulting Fees</v>
@@ -6455,7 +6474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B164</f>
         <v>Payroll Tax</v>
@@ -6469,7 +6488,7 @@
         <v>243500</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B165</f>
         <v>Transporte</v>
@@ -6483,7 +6502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B166</f>
         <v>401 K</v>
@@ -6497,7 +6516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B167</f>
         <v>Total Payroll Tax &amp; Benefits</v>
@@ -6511,7 +6530,7 @@
         <v>243500</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <f>'[1]FIN-P&amp;L_CWS'!$B168</f>
         <v>0</v>
@@ -6525,7 +6544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="17" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="18" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B169</f>
         <v>Total Sal - Wages &amp; Benefits</v>
@@ -6567,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B172</f>
         <v>Rent</v>
@@ -6581,7 +6600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B173</f>
         <v>Phone</v>
@@ -6595,7 +6614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B174</f>
         <v>Local Service</v>
@@ -6609,7 +6628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B175</f>
         <v>Long Distance</v>
@@ -6623,7 +6642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B176</f>
         <v>800 Service</v>
@@ -6637,7 +6656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B177</f>
         <v>Cell Phones</v>
@@ -6651,7 +6670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B178</f>
         <v>Total Phone</v>
@@ -6665,7 +6684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A74" s="6">
         <f>'[1]FIN-P&amp;L_CWS'!$B179</f>
         <v>0</v>
@@ -6679,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B180</f>
         <v>Office &amp; Admin</v>
@@ -6693,7 +6712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A76" s="12" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B181</f>
         <v>Postage</v>
@@ -6707,7 +6726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A77" s="12" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B182</f>
         <v>Office Shipping</v>
@@ -6721,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A78" s="12" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B183</f>
         <v>Banking Fees</v>
@@ -6735,7 +6754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A79" s="12" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B184</f>
         <v>Alquiler local</v>
@@ -6749,7 +6768,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A80" s="12" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B185</f>
         <v>Miscellaneous</v>
@@ -6763,7 +6782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B186</f>
         <v>Total Office and Admin</v>
@@ -6777,7 +6796,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <f>'[1]FIN-P&amp;L_CWS'!$B187</f>
         <v>0</v>
@@ -6791,7 +6810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B188</f>
         <v>Accounting &amp; Other</v>
@@ -6805,7 +6824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B189</f>
         <v>Accounting General</v>
@@ -6819,7 +6838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B190</f>
         <v>Accounting Tax Prep</v>
@@ -6833,7 +6852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B191</f>
         <v>Other Consulting Fees</v>
@@ -6847,7 +6866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B192</f>
         <v>Total Accounting &amp; Other</v>
@@ -6861,7 +6880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <f>'[1]FIN-P&amp;L_CWS'!$B193</f>
         <v>0</v>
@@ -6875,7 +6894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B194</f>
         <v xml:space="preserve">Legal </v>
@@ -6889,7 +6908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B195</f>
         <v>Corporate</v>
@@ -6903,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B196</f>
         <v>Partnership Agreements</v>
@@ -6917,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B197</f>
         <v>Patent Protection</v>
@@ -6931,7 +6950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B198</f>
         <v xml:space="preserve">Total Legal </v>
@@ -6945,7 +6964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="10">
         <f>'[1]FIN-P&amp;L_CWS'!$B199</f>
         <v>0</v>
@@ -6959,7 +6978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B200</f>
         <v>Licenses and Permits</v>
@@ -6973,7 +6992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <f>'[1]FIN-P&amp;L_CWS'!$B201</f>
         <v>0</v>
@@ -6987,7 +7006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B202</f>
         <v>Sales and Use Taxes</v>
@@ -7001,7 +7020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A98" s="10">
         <f>'[1]FIN-P&amp;L_CWS'!$B203</f>
         <v>0</v>
@@ -7015,7 +7034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B204</f>
         <v>Depreciation</v>
@@ -7029,7 +7048,7 @@
         <v>158250</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A100" s="10">
         <f>'[1]FIN-P&amp;L_CWS'!$B205</f>
         <v>0</v>
@@ -7043,7 +7062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="17" collapsed="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="18" t="str">
         <f>'[1]FIN-P&amp;L_CWS'!$B206</f>
         <v>Total Expense</v>
@@ -7082,7 +7101,7 @@
       </c>
       <c r="C103" s="23">
         <f>'[1]FIN-P&amp;L_CWS'!I208</f>
-        <v>-7614250</v>
+        <v>-7053550</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -7096,7 +7115,7 @@
       </c>
       <c r="C104" s="25">
         <f>'[1]FIN-P&amp;L_CWS'!I209</f>
-        <v>-21239166.666666664</v>
+        <v>-20678466.666666664</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
